--- a/SUBMIT_PLACE/HAI_TRAN/REQUIREMENT/BSS_ListOfUsecaseDescriptions_V1.0.xlsx
+++ b/SUBMIT_PLACE/HAI_TRAN/REQUIREMENT/BSS_ListOfUsecaseDescriptions_V1.0.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="2" r:id="rId1"/>
     <sheet name="OverView" sheetId="1" r:id="rId2"/>
-    <sheet name="Admin System(En-1)" sheetId="3" r:id="rId3"/>
-    <sheet name="Admin Content(En-2)" sheetId="4" r:id="rId4"/>
-    <sheet name="Editor(En-3)" sheetId="5" r:id="rId5"/>
-    <sheet name="Education Staff(En-4)" sheetId="6" r:id="rId6"/>
-    <sheet name="User(En-5)" sheetId="7" r:id="rId7"/>
-    <sheet name="Mail Server(En-6)" sheetId="8" r:id="rId8"/>
+    <sheet name="System Admin(SA)" sheetId="3" r:id="rId3"/>
+    <sheet name="Content Admin(CA)" sheetId="4" r:id="rId4"/>
+    <sheet name="Editor(ED)" sheetId="5" r:id="rId5"/>
+    <sheet name="Education Staff(ES)" sheetId="6" r:id="rId6"/>
+    <sheet name="User(US)" sheetId="7" r:id="rId7"/>
+    <sheet name="Mail Server(MS)" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OverView!$E$1:$E$57</definedName>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="247">
   <si>
     <t>Manage Accounts</t>
   </si>
@@ -1283,6 +1283,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1313,10 +1318,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1331,11 +1336,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -1344,6 +1344,72 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
       <color rgb="FFFC2704"/>
     </mruColors>
@@ -1364,7 +1430,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="1E1E1E"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1696,10 +1762,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="83"/>
+      <c r="D3" s="86"/>
     </row>
     <row r="4" spans="2:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C4" s="2" t="s">
@@ -1814,8 +1880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1870,7 +1936,7 @@
       <c r="A2" s="72">
         <v>1</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="92" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -1903,7 +1969,7 @@
       <c r="A3" s="72">
         <v>2</v>
       </c>
-      <c r="B3" s="89"/>
+      <c r="B3" s="92"/>
       <c r="C3" s="28" t="s">
         <v>41</v>
       </c>
@@ -1936,7 +2002,7 @@
       <c r="A4" s="72">
         <v>3</v>
       </c>
-      <c r="B4" s="89"/>
+      <c r="B4" s="92"/>
       <c r="C4" s="28" t="s">
         <v>42</v>
       </c>
@@ -1967,7 +2033,7 @@
       <c r="A5" s="72">
         <v>4</v>
       </c>
-      <c r="B5" s="89"/>
+      <c r="B5" s="92"/>
       <c r="C5" s="28" t="s">
         <v>43</v>
       </c>
@@ -2000,7 +2066,7 @@
       <c r="A6" s="72">
         <v>5</v>
       </c>
-      <c r="B6" s="89"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="28" t="s">
         <v>44</v>
       </c>
@@ -2031,7 +2097,7 @@
       <c r="A7" s="72">
         <v>6</v>
       </c>
-      <c r="B7" s="89"/>
+      <c r="B7" s="92"/>
       <c r="C7" s="28" t="s">
         <v>45</v>
       </c>
@@ -2062,7 +2128,7 @@
       <c r="A8" s="72">
         <v>7</v>
       </c>
-      <c r="B8" s="89"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="28" t="s">
         <v>46</v>
       </c>
@@ -2093,7 +2159,7 @@
       <c r="A9" s="72">
         <v>8</v>
       </c>
-      <c r="B9" s="89"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="28" t="s">
         <v>86</v>
       </c>
@@ -2121,7 +2187,7 @@
       <c r="K9" s="73"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="89"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="28" t="s">
         <v>92</v>
       </c>
@@ -2149,7 +2215,7 @@
       <c r="K10" s="73"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="89"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="28" t="s">
         <v>221</v>
       </c>
@@ -2182,7 +2248,7 @@
       <c r="A12" s="72">
         <v>9</v>
       </c>
-      <c r="B12" s="89"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="28" t="s">
         <v>222</v>
       </c>
@@ -2215,7 +2281,7 @@
       <c r="A13" s="72">
         <v>10</v>
       </c>
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="95" t="s">
         <v>184</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -2230,7 +2296,7 @@
       <c r="F13" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="G13" s="99" t="s">
+      <c r="G13" s="83" t="s">
         <v>195</v>
       </c>
       <c r="H13" s="82" t="s">
@@ -2247,7 +2313,7 @@
       <c r="A14" s="72">
         <v>11</v>
       </c>
-      <c r="B14" s="92"/>
+      <c r="B14" s="95"/>
       <c r="C14" s="28" t="s">
         <v>48</v>
       </c>
@@ -2260,7 +2326,7 @@
       <c r="F14" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="99" t="s">
+      <c r="G14" s="83" t="s">
         <v>195</v>
       </c>
       <c r="H14" s="82" t="s">
@@ -2277,7 +2343,7 @@
       <c r="A15" s="72">
         <v>13</v>
       </c>
-      <c r="B15" s="92"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="28" t="s">
         <v>49</v>
       </c>
@@ -2290,7 +2356,7 @@
       <c r="F15" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="G15" s="99" t="s">
+      <c r="G15" s="83" t="s">
         <v>195</v>
       </c>
       <c r="H15" s="82" t="s">
@@ -2307,7 +2373,7 @@
       <c r="A16" s="72">
         <v>14</v>
       </c>
-      <c r="B16" s="92"/>
+      <c r="B16" s="95"/>
       <c r="C16" s="28" t="s">
         <v>50</v>
       </c>
@@ -2320,7 +2386,7 @@
       <c r="F16" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="G16" s="99" t="s">
+      <c r="G16" s="83" t="s">
         <v>195</v>
       </c>
       <c r="H16" s="82" t="s">
@@ -2337,7 +2403,7 @@
       <c r="A17" s="72">
         <v>15</v>
       </c>
-      <c r="B17" s="92"/>
+      <c r="B17" s="95"/>
       <c r="C17" s="28" t="s">
         <v>51</v>
       </c>
@@ -2350,7 +2416,7 @@
       <c r="F17" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="G17" s="99" t="s">
+      <c r="G17" s="83" t="s">
         <v>195</v>
       </c>
       <c r="H17" s="82" t="s">
@@ -2367,7 +2433,7 @@
       <c r="A18" s="72">
         <v>16</v>
       </c>
-      <c r="B18" s="92"/>
+      <c r="B18" s="95"/>
       <c r="C18" s="28" t="s">
         <v>52</v>
       </c>
@@ -2380,7 +2446,7 @@
       <c r="F18" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="G18" s="99" t="s">
+      <c r="G18" s="83" t="s">
         <v>195</v>
       </c>
       <c r="H18" s="82" t="s">
@@ -2397,7 +2463,7 @@
       <c r="A19" s="72">
         <v>17</v>
       </c>
-      <c r="B19" s="92"/>
+      <c r="B19" s="95"/>
       <c r="C19" s="28" t="s">
         <v>53</v>
       </c>
@@ -2410,7 +2476,7 @@
       <c r="F19" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="G19" s="99" t="s">
+      <c r="G19" s="83" t="s">
         <v>195</v>
       </c>
       <c r="H19" s="82" t="s">
@@ -2427,7 +2493,7 @@
       <c r="A20" s="72">
         <v>18</v>
       </c>
-      <c r="B20" s="92"/>
+      <c r="B20" s="95"/>
       <c r="C20" s="28" t="s">
         <v>54</v>
       </c>
@@ -2440,7 +2506,7 @@
       <c r="F20" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="G20" s="99" t="s">
+      <c r="G20" s="83" t="s">
         <v>195</v>
       </c>
       <c r="H20" s="82" t="s">
@@ -2457,7 +2523,7 @@
       <c r="A21" s="72">
         <v>19</v>
       </c>
-      <c r="B21" s="92"/>
+      <c r="B21" s="95"/>
       <c r="C21" s="28" t="s">
         <v>55</v>
       </c>
@@ -2470,7 +2536,7 @@
       <c r="F21" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="G21" s="99" t="s">
+      <c r="G21" s="83" t="s">
         <v>195</v>
       </c>
       <c r="H21" s="82" t="s">
@@ -2487,7 +2553,7 @@
       <c r="A22" s="72">
         <v>20</v>
       </c>
-      <c r="B22" s="92"/>
+      <c r="B22" s="95"/>
       <c r="C22" s="28" t="s">
         <v>56</v>
       </c>
@@ -2500,7 +2566,7 @@
       <c r="F22" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="G22" s="99" t="s">
+      <c r="G22" s="83" t="s">
         <v>195</v>
       </c>
       <c r="H22" s="82" t="s">
@@ -2517,7 +2583,7 @@
       <c r="A23" s="72">
         <v>21</v>
       </c>
-      <c r="B23" s="92"/>
+      <c r="B23" s="95"/>
       <c r="C23" s="28" t="s">
         <v>57</v>
       </c>
@@ -2530,7 +2596,7 @@
       <c r="F23" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="G23" s="99" t="s">
+      <c r="G23" s="83" t="s">
         <v>195</v>
       </c>
       <c r="H23" s="82" t="s">
@@ -2545,7 +2611,7 @@
     </row>
     <row r="24" spans="1:10" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="72"/>
-      <c r="B24" s="92"/>
+      <c r="B24" s="95"/>
       <c r="C24" s="28" t="s">
         <v>58</v>
       </c>
@@ -2558,7 +2624,7 @@
       <c r="F24" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="G24" s="99" t="s">
+      <c r="G24" s="83" t="s">
         <v>195</v>
       </c>
       <c r="H24" s="82"/>
@@ -2569,7 +2635,7 @@
       <c r="A25" s="72">
         <v>22</v>
       </c>
-      <c r="B25" s="92"/>
+      <c r="B25" s="95"/>
       <c r="C25" s="19" t="s">
         <v>96</v>
       </c>
@@ -2582,7 +2648,7 @@
       <c r="F25" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="G25" s="99" t="s">
+      <c r="G25" s="83" t="s">
         <v>195</v>
       </c>
       <c r="H25" s="82" t="s">
@@ -2599,7 +2665,7 @@
       <c r="A26" s="72">
         <v>23</v>
       </c>
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="93" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="16" t="s">
@@ -2631,7 +2697,7 @@
       <c r="A27" s="72">
         <v>24</v>
       </c>
-      <c r="B27" s="90"/>
+      <c r="B27" s="93"/>
       <c r="C27" s="28" t="s">
         <v>60</v>
       </c>
@@ -2661,7 +2727,7 @@
       <c r="A28" s="72">
         <v>25</v>
       </c>
-      <c r="B28" s="90"/>
+      <c r="B28" s="93"/>
       <c r="C28" s="28" t="s">
         <v>61</v>
       </c>
@@ -2691,7 +2757,7 @@
       <c r="A29" s="72">
         <v>26</v>
       </c>
-      <c r="B29" s="90"/>
+      <c r="B29" s="93"/>
       <c r="C29" s="19" t="s">
         <v>62</v>
       </c>
@@ -2721,7 +2787,7 @@
       <c r="A30" s="72">
         <v>27</v>
       </c>
-      <c r="B30" s="91" t="s">
+      <c r="B30" s="94" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="16" t="s">
@@ -2753,7 +2819,7 @@
       <c r="A31" s="72">
         <v>28</v>
       </c>
-      <c r="B31" s="91"/>
+      <c r="B31" s="94"/>
       <c r="C31" s="27" t="s">
         <v>64</v>
       </c>
@@ -2783,7 +2849,7 @@
       <c r="A32" s="72">
         <v>29</v>
       </c>
-      <c r="B32" s="91"/>
+      <c r="B32" s="94"/>
       <c r="C32" s="28" t="s">
         <v>65</v>
       </c>
@@ -2813,7 +2879,7 @@
       <c r="A33" s="72">
         <v>30</v>
       </c>
-      <c r="B33" s="91"/>
+      <c r="B33" s="94"/>
       <c r="C33" s="27" t="s">
         <v>66</v>
       </c>
@@ -2843,7 +2909,7 @@
       <c r="A34" s="72">
         <v>31</v>
       </c>
-      <c r="B34" s="91"/>
+      <c r="B34" s="94"/>
       <c r="C34" s="28" t="s">
         <v>67</v>
       </c>
@@ -2873,7 +2939,7 @@
       <c r="A35" s="72">
         <v>32</v>
       </c>
-      <c r="B35" s="91"/>
+      <c r="B35" s="94"/>
       <c r="C35" s="28" t="s">
         <v>95</v>
       </c>
@@ -2903,7 +2969,7 @@
       <c r="A36" s="72">
         <v>33</v>
       </c>
-      <c r="B36" s="91"/>
+      <c r="B36" s="94"/>
       <c r="C36" s="19" t="s">
         <v>187</v>
       </c>
@@ -2933,7 +2999,7 @@
       <c r="A37" s="72">
         <v>34</v>
       </c>
-      <c r="B37" s="85" t="s">
+      <c r="B37" s="88" t="s">
         <v>29</v>
       </c>
       <c r="C37" s="28" t="s">
@@ -2965,7 +3031,7 @@
       <c r="A38" s="72">
         <v>35</v>
       </c>
-      <c r="B38" s="86"/>
+      <c r="B38" s="89"/>
       <c r="C38" s="28" t="s">
         <v>69</v>
       </c>
@@ -2995,7 +3061,7 @@
       <c r="A39" s="72">
         <v>36</v>
       </c>
-      <c r="B39" s="86"/>
+      <c r="B39" s="89"/>
       <c r="C39" s="28" t="s">
         <v>70</v>
       </c>
@@ -3025,7 +3091,7 @@
       <c r="A40" s="72">
         <v>37</v>
       </c>
-      <c r="B40" s="86"/>
+      <c r="B40" s="89"/>
       <c r="C40" s="27" t="s">
         <v>71</v>
       </c>
@@ -3055,7 +3121,7 @@
       <c r="A41" s="72">
         <v>38</v>
       </c>
-      <c r="B41" s="86"/>
+      <c r="B41" s="89"/>
       <c r="C41" s="19" t="s">
         <v>72</v>
       </c>
@@ -3085,7 +3151,7 @@
       <c r="A42" s="72">
         <v>39</v>
       </c>
-      <c r="B42" s="87" t="s">
+      <c r="B42" s="90" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="16" t="s">
@@ -3117,7 +3183,7 @@
       <c r="A43" s="72">
         <v>40</v>
       </c>
-      <c r="B43" s="87"/>
+      <c r="B43" s="90"/>
       <c r="C43" s="28" t="s">
         <v>74</v>
       </c>
@@ -3147,7 +3213,7 @@
       <c r="A44" s="72">
         <v>41</v>
       </c>
-      <c r="B44" s="87"/>
+      <c r="B44" s="90"/>
       <c r="C44" s="28" t="s">
         <v>75</v>
       </c>
@@ -3177,7 +3243,7 @@
       <c r="A45" s="72">
         <v>42</v>
       </c>
-      <c r="B45" s="87"/>
+      <c r="B45" s="90"/>
       <c r="C45" s="28" t="s">
         <v>76</v>
       </c>
@@ -3207,7 +3273,7 @@
       <c r="A46" s="72">
         <v>43</v>
       </c>
-      <c r="B46" s="87"/>
+      <c r="B46" s="90"/>
       <c r="C46" s="28" t="s">
         <v>77</v>
       </c>
@@ -3237,7 +3303,7 @@
       <c r="A47" s="72">
         <v>44</v>
       </c>
-      <c r="B47" s="87"/>
+      <c r="B47" s="90"/>
       <c r="C47" s="19" t="s">
         <v>78</v>
       </c>
@@ -3267,7 +3333,7 @@
       <c r="A48" s="72">
         <v>45</v>
       </c>
-      <c r="B48" s="88" t="s">
+      <c r="B48" s="91" t="s">
         <v>38</v>
       </c>
       <c r="C48" s="16" t="s">
@@ -3299,7 +3365,7 @@
       <c r="A49" s="72">
         <v>46</v>
       </c>
-      <c r="B49" s="88"/>
+      <c r="B49" s="91"/>
       <c r="C49" s="28" t="s">
         <v>80</v>
       </c>
@@ -3329,7 +3395,7 @@
       <c r="A50" s="72">
         <v>47</v>
       </c>
-      <c r="B50" s="88"/>
+      <c r="B50" s="91"/>
       <c r="C50" s="28" t="s">
         <v>81</v>
       </c>
@@ -3359,7 +3425,7 @@
       <c r="A51" s="72">
         <v>48</v>
       </c>
-      <c r="B51" s="88"/>
+      <c r="B51" s="91"/>
       <c r="C51" s="28" t="s">
         <v>82</v>
       </c>
@@ -3389,7 +3455,7 @@
       <c r="A52" s="72">
         <v>49</v>
       </c>
-      <c r="B52" s="88"/>
+      <c r="B52" s="91"/>
       <c r="C52" s="28" t="s">
         <v>83</v>
       </c>
@@ -3419,7 +3485,7 @@
       <c r="A53" s="72">
         <v>50</v>
       </c>
-      <c r="B53" s="88"/>
+      <c r="B53" s="91"/>
       <c r="C53" s="19" t="s">
         <v>84</v>
       </c>
@@ -3481,7 +3547,7 @@
       <c r="A55" s="72">
         <v>55</v>
       </c>
-      <c r="B55" s="84" t="s">
+      <c r="B55" s="87" t="s">
         <v>115</v>
       </c>
       <c r="C55" s="16" t="s">
@@ -3513,7 +3579,7 @@
       <c r="A56" s="72">
         <v>56</v>
       </c>
-      <c r="B56" s="84"/>
+      <c r="B56" s="87"/>
       <c r="C56" s="28" t="s">
         <v>117</v>
       </c>
@@ -3543,7 +3609,7 @@
       <c r="A57" s="72">
         <v>57</v>
       </c>
-      <c r="B57" s="84"/>
+      <c r="B57" s="87"/>
       <c r="C57" s="19" t="s">
         <v>118</v>
       </c>
@@ -3605,7 +3671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -3625,12 +3691,12 @@
       <c r="C1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="85" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="92" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -3644,7 +3710,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="89"/>
+      <c r="A3" s="92"/>
       <c r="B3" s="31" t="s">
         <v>41</v>
       </c>
@@ -3656,7 +3722,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="89"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="31" t="s">
         <v>42</v>
       </c>
@@ -3668,7 +3734,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="89"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="31" t="s">
         <v>43</v>
       </c>
@@ -3680,7 +3746,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="89"/>
+      <c r="A6" s="92"/>
       <c r="B6" s="31" t="s">
         <v>44</v>
       </c>
@@ -3692,7 +3758,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
+      <c r="A7" s="92"/>
       <c r="B7" s="31" t="s">
         <v>45</v>
       </c>
@@ -3704,7 +3770,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
+      <c r="A8" s="92"/>
       <c r="B8" s="31" t="s">
         <v>46</v>
       </c>
@@ -3716,7 +3782,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" s="80" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="89"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="31" t="s">
         <v>86</v>
       </c>
@@ -3728,7 +3794,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" s="80" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="89"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="31" t="s">
         <v>92</v>
       </c>
@@ -3740,7 +3806,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="89"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="31" t="s">
         <v>221</v>
       </c>
@@ -3752,7 +3818,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="89"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="31" t="s">
         <v>222</v>
       </c>
@@ -3792,7 +3858,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="88" t="s">
         <v>181</v>
       </c>
       <c r="B15" s="31" t="s">
@@ -3806,7 +3872,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="18" t="s">
         <v>72</v>
       </c>
@@ -3864,37 +3930,37 @@
       <c r="D20" s="44"/>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="94"/>
+      <c r="A21" s="96"/>
       <c r="B21" s="43"/>
       <c r="C21" s="41"/>
       <c r="D21" s="44"/>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="94"/>
+      <c r="A22" s="96"/>
       <c r="B22" s="43"/>
       <c r="C22" s="41"/>
       <c r="D22" s="44"/>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="94"/>
+      <c r="A23" s="96"/>
       <c r="B23" s="43"/>
       <c r="C23" s="41"/>
       <c r="D23" s="44"/>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="94"/>
+      <c r="A24" s="96"/>
       <c r="B24" s="43"/>
       <c r="C24" s="41"/>
       <c r="D24" s="44"/>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="94"/>
+      <c r="A25" s="96"/>
       <c r="B25" s="43"/>
       <c r="C25" s="41"/>
       <c r="D25" s="44"/>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="94"/>
+      <c r="A26" s="96"/>
       <c r="B26" s="43"/>
       <c r="C26" s="41"/>
       <c r="D26" s="44"/>
@@ -3915,8 +3981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3935,12 +4001,12 @@
       <c r="C1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="85" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="92" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -3954,7 +4020,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="89"/>
+      <c r="A3" s="92"/>
       <c r="B3" s="31" t="s">
         <v>41</v>
       </c>
@@ -3966,7 +4032,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="89"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="31" t="s">
         <v>43</v>
       </c>
@@ -3978,7 +4044,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="89"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="31" t="s">
         <v>45</v>
       </c>
@@ -3990,7 +4056,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="98" t="s">
         <v>184</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -4004,7 +4070,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="95"/>
+      <c r="A7" s="98"/>
       <c r="B7" s="31" t="s">
         <v>48</v>
       </c>
@@ -4016,7 +4082,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="95"/>
+      <c r="A8" s="98"/>
       <c r="B8" s="31" t="s">
         <v>50</v>
       </c>
@@ -4028,7 +4094,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="95"/>
+      <c r="A9" s="98"/>
       <c r="B9" s="31" t="s">
         <v>51</v>
       </c>
@@ -4040,7 +4106,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="95"/>
+      <c r="A10" s="98"/>
       <c r="B10" s="31" t="s">
         <v>52</v>
       </c>
@@ -4052,7 +4118,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="95"/>
+      <c r="A11" s="98"/>
       <c r="B11" s="31" t="s">
         <v>53</v>
       </c>
@@ -4064,7 +4130,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
+      <c r="A12" s="98"/>
       <c r="B12" s="32" t="s">
         <v>54</v>
       </c>
@@ -4076,7 +4142,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="95"/>
+      <c r="A13" s="98"/>
       <c r="B13" s="31" t="s">
         <v>55</v>
       </c>
@@ -4088,7 +4154,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="95"/>
+      <c r="A14" s="98"/>
       <c r="B14" s="32" t="s">
         <v>56</v>
       </c>
@@ -4100,7 +4166,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="95"/>
+      <c r="A15" s="98"/>
       <c r="B15" s="32" t="s">
         <v>57</v>
       </c>
@@ -4112,7 +4178,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="95"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="31" t="s">
         <v>58</v>
       </c>
@@ -4124,7 +4190,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="95"/>
+      <c r="A17" s="98"/>
       <c r="B17" s="33" t="s">
         <v>96</v>
       </c>
@@ -4136,7 +4202,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="93" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -4150,7 +4216,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="90"/>
+      <c r="A19" s="93"/>
       <c r="B19" s="31" t="s">
         <v>60</v>
       </c>
@@ -4162,7 +4228,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="90"/>
+      <c r="A20" s="93"/>
       <c r="B20" s="31" t="s">
         <v>61</v>
       </c>
@@ -4174,7 +4240,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
+      <c r="A21" s="93"/>
       <c r="B21" s="18" t="s">
         <v>62</v>
       </c>
@@ -4200,7 +4266,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="96"/>
+      <c r="A23" s="99"/>
       <c r="B23" s="31" t="s">
         <v>69</v>
       </c>
@@ -4212,7 +4278,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="96"/>
+      <c r="A24" s="99"/>
       <c r="B24" s="31" t="s">
         <v>70</v>
       </c>
@@ -4224,7 +4290,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="96"/>
+      <c r="A25" s="99"/>
       <c r="B25" s="32" t="s">
         <v>71</v>
       </c>
@@ -4236,7 +4302,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="96"/>
+      <c r="A26" s="99"/>
       <c r="B26" s="18" t="s">
         <v>72</v>
       </c>
@@ -4248,7 +4314,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="90" t="s">
         <v>35</v>
       </c>
       <c r="B27" s="15" t="s">
@@ -4262,7 +4328,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="87"/>
+      <c r="A28" s="90"/>
       <c r="B28" s="31" t="s">
         <v>74</v>
       </c>
@@ -4274,7 +4340,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="87"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="31" t="s">
         <v>75</v>
       </c>
@@ -4286,7 +4352,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="87"/>
+      <c r="A30" s="90"/>
       <c r="B30" s="31" t="s">
         <v>76</v>
       </c>
@@ -4298,7 +4364,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="87"/>
+      <c r="A31" s="90"/>
       <c r="B31" s="31" t="s">
         <v>77</v>
       </c>
@@ -4310,7 +4376,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="87"/>
+      <c r="A32" s="90"/>
       <c r="B32" s="18" t="s">
         <v>78</v>
       </c>
@@ -4322,7 +4388,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="88" t="s">
+      <c r="A33" s="91" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="15" t="s">
@@ -4336,7 +4402,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="88"/>
+      <c r="A34" s="91"/>
       <c r="B34" s="31" t="s">
         <v>80</v>
       </c>
@@ -4348,7 +4414,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="88"/>
+      <c r="A35" s="91"/>
       <c r="B35" s="31" t="s">
         <v>81</v>
       </c>
@@ -4360,7 +4426,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="88"/>
+      <c r="A36" s="91"/>
       <c r="B36" s="31" t="s">
         <v>82</v>
       </c>
@@ -4372,7 +4438,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="88"/>
+      <c r="A37" s="91"/>
       <c r="B37" s="31" t="s">
         <v>83</v>
       </c>
@@ -4384,7 +4450,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="88"/>
+      <c r="A38" s="91"/>
       <c r="B38" s="18" t="s">
         <v>84</v>
       </c>
@@ -4408,7 +4474,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="93" t="s">
+      <c r="A40" s="97" t="s">
         <v>111</v>
       </c>
       <c r="B40" s="15" t="s">
@@ -4422,7 +4488,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="93"/>
+      <c r="A41" s="97"/>
       <c r="B41" s="31" t="s">
         <v>113</v>
       </c>
@@ -4434,7 +4500,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="93"/>
+      <c r="A42" s="97"/>
       <c r="B42" s="18" t="s">
         <v>114</v>
       </c>
@@ -4446,7 +4512,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="84" t="s">
+      <c r="A43" s="87" t="s">
         <v>115</v>
       </c>
       <c r="B43" s="31" t="s">
@@ -4460,7 +4526,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="84"/>
+      <c r="A44" s="87"/>
       <c r="B44" s="31" t="s">
         <v>117</v>
       </c>
@@ -4472,7 +4538,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="84"/>
+      <c r="A45" s="87"/>
       <c r="B45" s="18" t="s">
         <v>118</v>
       </c>
@@ -4527,7 +4593,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="92" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -4541,7 +4607,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="89"/>
+      <c r="A3" s="92"/>
       <c r="B3" s="28" t="s">
         <v>41</v>
       </c>
@@ -4553,7 +4619,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="89"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="28" t="s">
         <v>43</v>
       </c>
@@ -4565,7 +4631,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="89"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="28" t="s">
         <v>45</v>
       </c>
@@ -4577,7 +4643,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="98" t="s">
         <v>184</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -4591,7 +4657,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="95"/>
+      <c r="A7" s="98"/>
       <c r="B7" s="28" t="s">
         <v>50</v>
       </c>
@@ -4603,7 +4669,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="95"/>
+      <c r="A8" s="98"/>
       <c r="B8" s="28" t="s">
         <v>51</v>
       </c>
@@ -4615,7 +4681,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="95"/>
+      <c r="A9" s="98"/>
       <c r="B9" s="28" t="s">
         <v>52</v>
       </c>
@@ -4627,7 +4693,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="95"/>
+      <c r="A10" s="98"/>
       <c r="B10" s="28" t="s">
         <v>53</v>
       </c>
@@ -4639,7 +4705,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
+      <c r="A11" s="98"/>
       <c r="B11" s="27" t="s">
         <v>56</v>
       </c>
@@ -4651,7 +4717,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
+      <c r="A12" s="98"/>
       <c r="B12" s="27" t="s">
         <v>57</v>
       </c>
@@ -4663,7 +4729,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
+      <c r="A13" s="98"/>
       <c r="B13" s="29" t="s">
         <v>96</v>
       </c>
@@ -4703,7 +4769,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="89" t="s">
         <v>189</v>
       </c>
       <c r="B16" s="28" t="s">
@@ -4717,7 +4783,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="86"/>
+      <c r="A17" s="89"/>
       <c r="B17" s="28" t="s">
         <v>70</v>
       </c>
@@ -4729,7 +4795,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="86"/>
+      <c r="A18" s="89"/>
       <c r="B18" s="19" t="s">
         <v>72</v>
       </c>
@@ -4741,7 +4807,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="90" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="16" t="s">
@@ -4755,7 +4821,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="87"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="28" t="s">
         <v>74</v>
       </c>
@@ -4767,7 +4833,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="87"/>
+      <c r="A21" s="90"/>
       <c r="B21" s="28" t="s">
         <v>75</v>
       </c>
@@ -4779,7 +4845,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="87"/>
+      <c r="A22" s="90"/>
       <c r="B22" s="28" t="s">
         <v>76</v>
       </c>
@@ -4791,7 +4857,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="87"/>
+      <c r="A23" s="90"/>
       <c r="B23" s="28" t="s">
         <v>77</v>
       </c>
@@ -4803,7 +4869,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="87"/>
+      <c r="A24" s="90"/>
       <c r="B24" s="19" t="s">
         <v>78</v>
       </c>
@@ -4815,7 +4881,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="88" t="s">
+      <c r="A25" s="91" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="16" t="s">
@@ -4829,7 +4895,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="88"/>
+      <c r="A26" s="91"/>
       <c r="B26" s="28" t="s">
         <v>80</v>
       </c>
@@ -4841,7 +4907,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="88"/>
+      <c r="A27" s="91"/>
       <c r="B27" s="28" t="s">
         <v>81</v>
       </c>
@@ -4853,7 +4919,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="88"/>
+      <c r="A28" s="91"/>
       <c r="B28" s="28" t="s">
         <v>82</v>
       </c>
@@ -4865,7 +4931,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="88"/>
+      <c r="A29" s="91"/>
       <c r="B29" s="28" t="s">
         <v>83</v>
       </c>
@@ -4877,7 +4943,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="88"/>
+      <c r="A30" s="91"/>
       <c r="B30" s="19" t="s">
         <v>84</v>
       </c>
@@ -4903,7 +4969,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="93" t="s">
+      <c r="A32" s="97" t="s">
         <v>111</v>
       </c>
       <c r="B32" s="16" t="s">
@@ -4917,7 +4983,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="93"/>
+      <c r="A33" s="97"/>
       <c r="B33" s="28" t="s">
         <v>113</v>
       </c>
@@ -4929,7 +4995,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="93"/>
+      <c r="A34" s="97"/>
       <c r="B34" s="19" t="s">
         <v>114</v>
       </c>
@@ -4941,7 +5007,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="87" t="s">
         <v>115</v>
       </c>
       <c r="B35" s="28" t="s">
@@ -4955,7 +5021,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="84"/>
+      <c r="A36" s="87"/>
       <c r="B36" s="28" t="s">
         <v>117</v>
       </c>
@@ -4967,7 +5033,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="84"/>
+      <c r="A37" s="87"/>
       <c r="B37" s="19" t="s">
         <v>118</v>
       </c>
@@ -5022,7 +5088,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="92" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -5036,7 +5102,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="89"/>
+      <c r="A3" s="92"/>
       <c r="B3" s="28" t="s">
         <v>41</v>
       </c>
@@ -5048,7 +5114,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="89"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="28" t="s">
         <v>43</v>
       </c>
@@ -5060,7 +5126,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="89"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="28" t="s">
         <v>45</v>
       </c>
@@ -5072,7 +5138,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="98" t="s">
         <v>184</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -5086,7 +5152,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="95"/>
+      <c r="A7" s="98"/>
       <c r="B7" s="28" t="s">
         <v>50</v>
       </c>
@@ -5098,7 +5164,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="95"/>
+      <c r="A8" s="98"/>
       <c r="B8" s="28" t="s">
         <v>51</v>
       </c>
@@ -5110,7 +5176,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="95"/>
+      <c r="A9" s="98"/>
       <c r="B9" s="28" t="s">
         <v>52</v>
       </c>
@@ -5122,7 +5188,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="95"/>
+      <c r="A10" s="98"/>
       <c r="B10" s="28" t="s">
         <v>53</v>
       </c>
@@ -5134,7 +5200,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
+      <c r="A11" s="98"/>
       <c r="B11" s="27" t="s">
         <v>56</v>
       </c>
@@ -5146,7 +5212,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" s="80" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
+      <c r="A12" s="98"/>
       <c r="B12" s="27" t="s">
         <v>57</v>
       </c>
@@ -5158,11 +5224,11 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="95"/>
+      <c r="A13" s="98"/>
       <c r="B13" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="100" t="s">
+      <c r="C13" s="84" t="s">
         <v>97</v>
       </c>
       <c r="D13" s="58" t="s">
@@ -5184,7 +5250,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="94" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -5198,7 +5264,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="91"/>
+      <c r="A16" s="94"/>
       <c r="B16" s="27" t="s">
         <v>66</v>
       </c>
@@ -5210,7 +5276,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="91"/>
+      <c r="A17" s="94"/>
       <c r="B17" s="28" t="s">
         <v>67</v>
       </c>
@@ -5222,7 +5288,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="91"/>
+      <c r="A18" s="94"/>
       <c r="B18" s="19" t="s">
         <v>187</v>
       </c>
@@ -5234,7 +5300,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="86"/>
+      <c r="A19" s="89"/>
       <c r="B19" s="28" t="s">
         <v>69</v>
       </c>
@@ -5246,7 +5312,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="86"/>
+      <c r="A20" s="89"/>
       <c r="B20" s="28" t="s">
         <v>70</v>
       </c>
@@ -5258,7 +5324,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="86"/>
+      <c r="A21" s="89"/>
       <c r="B21" s="19" t="s">
         <v>72</v>
       </c>
@@ -5270,7 +5336,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="90" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="16" t="s">
@@ -5284,7 +5350,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="87"/>
+      <c r="A23" s="90"/>
       <c r="B23" s="28" t="s">
         <v>74</v>
       </c>
@@ -5296,7 +5362,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="87"/>
+      <c r="A24" s="90"/>
       <c r="B24" s="28" t="s">
         <v>75</v>
       </c>
@@ -5308,7 +5374,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="87"/>
+      <c r="A25" s="90"/>
       <c r="B25" s="28" t="s">
         <v>76</v>
       </c>
@@ -5320,7 +5386,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="87"/>
+      <c r="A26" s="90"/>
       <c r="B26" s="28" t="s">
         <v>77</v>
       </c>
@@ -5332,7 +5398,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="87"/>
+      <c r="A27" s="90"/>
       <c r="B27" s="19" t="s">
         <v>78</v>
       </c>
@@ -5344,7 +5410,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="91" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="16" t="s">
@@ -5358,7 +5424,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="88"/>
+      <c r="A29" s="91"/>
       <c r="B29" s="28" t="s">
         <v>80</v>
       </c>
@@ -5370,7 +5436,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="88"/>
+      <c r="A30" s="91"/>
       <c r="B30" s="28" t="s">
         <v>81</v>
       </c>
@@ -5382,7 +5448,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="88"/>
+      <c r="A31" s="91"/>
       <c r="B31" s="28" t="s">
         <v>82</v>
       </c>
@@ -5394,7 +5460,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="88"/>
+      <c r="A32" s="91"/>
       <c r="B32" s="28" t="s">
         <v>83</v>
       </c>
@@ -5406,7 +5472,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="88"/>
+      <c r="A33" s="91"/>
       <c r="B33" s="19" t="s">
         <v>84</v>
       </c>
@@ -5432,7 +5498,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="97" t="s">
         <v>111</v>
       </c>
       <c r="B35" s="16" t="s">
@@ -5446,7 +5512,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="93"/>
+      <c r="A36" s="97"/>
       <c r="B36" s="28" t="s">
         <v>113</v>
       </c>
@@ -5458,7 +5524,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="93"/>
+      <c r="A37" s="97"/>
       <c r="B37" s="19" t="s">
         <v>114</v>
       </c>
@@ -5470,7 +5536,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="84" t="s">
+      <c r="A38" s="87" t="s">
         <v>115</v>
       </c>
       <c r="B38" s="28" t="s">
@@ -5484,7 +5550,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="84"/>
+      <c r="A39" s="87"/>
       <c r="B39" s="28" t="s">
         <v>117</v>
       </c>
@@ -5496,7 +5562,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="84"/>
+      <c r="A40" s="87"/>
       <c r="B40" s="19" t="s">
         <v>118</v>
       </c>
@@ -5524,10 +5590,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5551,7 +5617,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="98" t="s">
         <v>184</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -5565,7 +5631,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="80" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="95"/>
+      <c r="A3" s="98"/>
       <c r="B3" s="28" t="s">
         <v>96</v>
       </c>
@@ -5577,7 +5643,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="95"/>
+      <c r="A4" s="98"/>
       <c r="B4" s="27" t="s">
         <v>56</v>
       </c>
@@ -5588,155 +5654,167 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
-      <c r="B5" s="27" t="s">
+    <row r="5" spans="1:4" s="80" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="98"/>
+      <c r="B5" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="98"/>
+      <c r="B6" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C6" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D6" s="56" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B7" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D7" s="57" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="91" t="s">
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B8" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C8" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D8" s="57" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="91"/>
-      <c r="B8" s="28" t="s">
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="94"/>
+      <c r="B9" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C9" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D9" s="56" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="91"/>
-      <c r="B9" s="19" t="s">
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="94"/>
+      <c r="B10" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D10" s="58" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="85" t="s">
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B11" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C11" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D11" s="56" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="86"/>
-      <c r="B11" s="28" t="s">
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="89"/>
+      <c r="B12" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C12" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D12" s="56" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="86"/>
-      <c r="B12" s="19" t="s">
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="89"/>
+      <c r="B13" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C13" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D13" s="58" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="55" t="s">
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B14" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C14" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D14" s="56" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B15" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C15" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D15" s="63" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="60" t="s">
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B16" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C16" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D16" s="58" t="s">
         <v>170</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5785,7 +5863,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="100" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -5799,7 +5877,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="98"/>
+      <c r="A4" s="101"/>
       <c r="B4" s="19" t="s">
         <v>187</v>
       </c>

--- a/SUBMIT_PLACE/HAI_TRAN/REQUIREMENT/BSS_ListOfUsecaseDescriptions_V1.0.xlsx
+++ b/SUBMIT_PLACE/HAI_TRAN/REQUIREMENT/BSS_ListOfUsecaseDescriptions_V1.0.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="255">
   <si>
     <t>Manage Accounts</t>
   </si>
@@ -786,6 +786,15 @@
   </si>
   <si>
     <t xml:space="preserve">Manage Question </t>
+  </si>
+  <si>
+    <t>UC-MH-04</t>
+  </si>
+  <si>
+    <t>CA,SA, ED, ES, MS, US</t>
+  </si>
+  <si>
+    <t>Actor view homepage</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1238,9 +1247,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1303,48 +1309,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1353,75 +1317,9 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1441,6 +1339,116 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -1449,6 +1457,72 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
       <color rgb="FFFF3333"/>
       <color rgb="FFFC2704"/>
@@ -1470,7 +1544,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="1E1E1E"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1802,10 +1876,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="83" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="83"/>
     </row>
     <row r="4" spans="2:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C4" s="2" t="s">
@@ -1821,13 +1895,13 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="71" t="s">
         <v>247</v>
       </c>
-      <c r="C8" s="108" t="s">
+      <c r="C8" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="108" t="s">
+      <c r="D8" s="72" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1918,20 +1992,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="59" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="84.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="58" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="57" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="2" bestFit="1" customWidth="1"/>
@@ -1941,45 +2015,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="60" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="I1" s="80" t="s">
+      <c r="I1" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="J1" s="80" t="s">
+      <c r="J1" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K1" s="80" t="s">
+      <c r="K1" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="L1" s="80" t="s">
+      <c r="L1" s="65" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="60">
+      <c r="A2" s="59">
         <v>1</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="96" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -1994,25 +2068,25 @@
       <c r="F2" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="I2" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="J2" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K2" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="L2" s="83"/>
+      <c r="I2" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="J2" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K2" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="L2" s="68"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="60">
+      <c r="A3" s="59">
         <v>2</v>
       </c>
-      <c r="B3" s="94"/>
+      <c r="B3" s="97"/>
       <c r="C3" s="27" t="s">
         <v>41</v>
       </c>
@@ -2025,27 +2099,27 @@
       <c r="F3" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="H3" s="81" t="s">
+      <c r="H3" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="I3" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="J3" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K3" s="82" t="s">
+      <c r="I3" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="J3" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K3" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="L3" s="82" t="s">
+      <c r="L3" s="67" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="60">
+      <c r="A4" s="59">
         <v>3</v>
       </c>
-      <c r="B4" s="94"/>
+      <c r="B4" s="97"/>
       <c r="C4" s="27" t="s">
         <v>42</v>
       </c>
@@ -2058,25 +2132,25 @@
       <c r="F4" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="81" t="s">
+      <c r="H4" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="I4" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="J4" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K4" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="L4" s="83"/>
+      <c r="I4" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="J4" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K4" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="L4" s="68"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="60">
+      <c r="A5" s="59">
         <v>4</v>
       </c>
-      <c r="B5" s="94"/>
+      <c r="B5" s="97"/>
       <c r="C5" s="27" t="s">
         <v>43</v>
       </c>
@@ -2089,27 +2163,27 @@
       <c r="F5" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="H5" s="81" t="s">
+      <c r="H5" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="I5" s="82" t="s">
+      <c r="I5" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="J5" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K5" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="L5" s="82" t="s">
+      <c r="J5" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="L5" s="67" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="60">
+      <c r="A6" s="59">
         <v>5</v>
       </c>
-      <c r="B6" s="94"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="27" t="s">
         <v>44</v>
       </c>
@@ -2122,25 +2196,25 @@
       <c r="F6" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="H6" s="81" t="s">
+      <c r="H6" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="I6" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="J6" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K6" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="L6" s="83"/>
+      <c r="I6" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="J6" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="L6" s="68"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="60">
+      <c r="A7" s="59">
         <v>6</v>
       </c>
-      <c r="B7" s="94"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="27" t="s">
         <v>45</v>
       </c>
@@ -2153,25 +2227,25 @@
       <c r="F7" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="H7" s="81" t="s">
+      <c r="H7" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="I7" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="J7" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K7" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="L7" s="83"/>
+      <c r="I7" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="J7" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K7" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="L7" s="68"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="60">
+      <c r="A8" s="59">
         <v>7</v>
       </c>
-      <c r="B8" s="94"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="27" t="s">
         <v>46</v>
       </c>
@@ -2184,25 +2258,25 @@
       <c r="F8" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="H8" s="81" t="s">
+      <c r="H8" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="I8" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="J8" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K8" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="L8" s="83"/>
+      <c r="I8" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="J8" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="L8" s="68"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="60">
+      <c r="A9" s="59">
         <v>8</v>
       </c>
-      <c r="B9" s="94"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="27" t="s">
         <v>86</v>
       </c>
@@ -2215,25 +2289,25 @@
       <c r="F9" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H9" s="81" t="s">
+      <c r="H9" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="I9" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="J9" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K9" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="L9" s="83"/>
+      <c r="I9" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="J9" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K9" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="L9" s="68"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="60">
+      <c r="A10" s="59">
         <v>9</v>
       </c>
-      <c r="B10" s="94"/>
+      <c r="B10" s="97"/>
       <c r="C10" s="27" t="s">
         <v>92</v>
       </c>
@@ -2246,25 +2320,25 @@
       <c r="F10" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="H10" s="81" t="s">
+      <c r="H10" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="I10" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="J10" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K10" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="L10" s="83"/>
+      <c r="I10" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="J10" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K10" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="L10" s="68"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="60">
+      <c r="A11" s="59">
         <v>10</v>
       </c>
-      <c r="B11" s="94"/>
+      <c r="B11" s="97"/>
       <c r="C11" s="27" t="s">
         <v>219</v>
       </c>
@@ -2277,27 +2351,27 @@
       <c r="F11" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="H11" s="81" t="s">
+      <c r="H11" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="I11" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="J11" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K11" s="82" t="s">
+      <c r="I11" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="J11" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K11" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="L11" s="82" t="s">
+      <c r="L11" s="67" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="60">
+      <c r="A12" s="59">
         <v>11</v>
       </c>
-      <c r="B12" s="95"/>
+      <c r="B12" s="98"/>
       <c r="C12" s="27" t="s">
         <v>220</v>
       </c>
@@ -2310,27 +2384,27 @@
       <c r="F12" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="H12" s="81" t="s">
+      <c r="H12" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="I12" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="J12" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K12" s="82" t="s">
+      <c r="I12" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="J12" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K12" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="L12" s="82" t="s">
+      <c r="L12" s="67" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="60">
+      <c r="A13" s="59">
         <v>12</v>
       </c>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="105" t="s">
         <v>183</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -2345,25 +2419,25 @@
       <c r="F13" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="H13" s="81" t="s">
+      <c r="H13" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="I13" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="J13" s="84" t="s">
+      <c r="I13" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="J13" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="K13" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="L13" s="82"/>
+      <c r="K13" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="L13" s="67"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="60">
+      <c r="A14" s="59">
         <v>13</v>
       </c>
-      <c r="B14" s="87"/>
+      <c r="B14" s="106"/>
       <c r="C14" s="27" t="s">
         <v>48</v>
       </c>
@@ -2376,29 +2450,29 @@
       <c r="F14" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="H14" s="81" t="s">
+      <c r="H14" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="I14" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="J14" s="84" t="s">
+      <c r="I14" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="J14" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="K14" s="84" t="s">
+      <c r="K14" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="L14" s="82"/>
+      <c r="L14" s="67"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="60">
+      <c r="A15" s="59">
         <v>14</v>
       </c>
-      <c r="B15" s="87"/>
+      <c r="B15" s="106"/>
       <c r="C15" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="46" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -2407,29 +2481,29 @@
       <c r="F15" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="81" t="s">
+      <c r="H15" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="I15" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="J15" s="84" t="s">
+      <c r="I15" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="J15" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="K15" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="L15" s="82"/>
+      <c r="K15" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="L15" s="67"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="60">
+      <c r="A16" s="59">
         <v>15</v>
       </c>
-      <c r="B16" s="87"/>
+      <c r="B16" s="106"/>
       <c r="C16" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="46" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -2438,25 +2512,25 @@
       <c r="F16" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="81" t="s">
+      <c r="H16" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="I16" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="J16" s="84" t="s">
+      <c r="I16" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="J16" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="K16" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="L16" s="82"/>
+      <c r="K16" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="L16" s="67"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="60">
+      <c r="A17" s="59">
         <v>16</v>
       </c>
-      <c r="B17" s="87"/>
+      <c r="B17" s="106"/>
       <c r="C17" s="27" t="s">
         <v>51</v>
       </c>
@@ -2469,25 +2543,25 @@
       <c r="F17" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="H17" s="81" t="s">
+      <c r="H17" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="I17" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="J17" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="K17" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="L17" s="82"/>
+      <c r="I17" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="J17" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="K17" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="L17" s="67"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="60">
+      <c r="A18" s="59">
         <v>17</v>
       </c>
-      <c r="B18" s="87"/>
+      <c r="B18" s="106"/>
       <c r="C18" s="27" t="s">
         <v>52</v>
       </c>
@@ -2500,25 +2574,25 @@
       <c r="F18" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="H18" s="81" t="s">
+      <c r="H18" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="I18" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="J18" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="K18" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="L18" s="82"/>
+      <c r="I18" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="J18" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="K18" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="L18" s="67"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="60">
+      <c r="A19" s="59">
         <v>18</v>
       </c>
-      <c r="B19" s="87"/>
+      <c r="B19" s="106"/>
       <c r="C19" s="27" t="s">
         <v>53</v>
       </c>
@@ -2528,28 +2602,28 @@
       <c r="E19" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="H19" s="81" t="s">
+      <c r="H19" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="I19" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="J19" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="K19" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="L19" s="82"/>
+      <c r="I19" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="J19" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="K19" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="L19" s="67"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="60">
+      <c r="A20" s="59">
         <v>19</v>
       </c>
-      <c r="B20" s="87"/>
+      <c r="B20" s="106"/>
       <c r="C20" s="27" t="s">
         <v>54</v>
       </c>
@@ -2562,25 +2636,25 @@
       <c r="F20" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="H20" s="81" t="s">
+      <c r="H20" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="I20" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="J20" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="K20" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="L20" s="82"/>
+      <c r="I20" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="J20" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="K20" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="L20" s="67"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="60">
+      <c r="A21" s="59">
         <v>20</v>
       </c>
-      <c r="B21" s="87"/>
+      <c r="B21" s="106"/>
       <c r="C21" s="27" t="s">
         <v>55</v>
       </c>
@@ -2590,28 +2664,28 @@
       <c r="E21" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="H21" s="81" t="s">
+      <c r="H21" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="I21" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="J21" s="84" t="s">
+      <c r="I21" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="J21" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="K21" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="L21" s="82"/>
+      <c r="K21" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="L21" s="67"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="60">
+      <c r="A22" s="59">
         <v>21</v>
       </c>
-      <c r="B22" s="87"/>
+      <c r="B22" s="106"/>
       <c r="C22" s="27" t="s">
         <v>56</v>
       </c>
@@ -2621,115 +2695,115 @@
       <c r="E22" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="F22" s="50" t="s">
+      <c r="F22" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="H22" s="81" t="s">
+      <c r="H22" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="I22" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="J22" s="84" t="s">
+      <c r="I22" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="J22" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="K22" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="L22" s="82"/>
+      <c r="K22" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="L22" s="67"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="60">
+      <c r="A23" s="59">
         <v>22</v>
       </c>
-      <c r="B23" s="87"/>
+      <c r="B23" s="106"/>
       <c r="C23" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="46" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="H23" s="81" t="s">
+      <c r="H23" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="I23" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="J23" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="K23" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="L23" s="82"/>
-    </row>
-    <row r="24" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="60">
+      <c r="I23" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="J23" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="K23" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="L23" s="67"/>
+    </row>
+    <row r="24" spans="1:12" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="59">
         <v>23</v>
       </c>
-      <c r="B24" s="87"/>
+      <c r="B24" s="106"/>
       <c r="C24" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="46" t="s">
         <v>97</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F24" s="50" t="s">
+      <c r="F24" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="H24" s="81" t="s">
+      <c r="H24" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="82"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="67"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="60">
+      <c r="A25" s="59">
         <v>24</v>
       </c>
-      <c r="B25" s="88"/>
+      <c r="B25" s="107"/>
       <c r="C25" s="18" t="s">
         <v>96</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="E25" s="63" t="s">
+      <c r="E25" s="62" t="s">
         <v>244</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="H25" s="81" t="s">
+      <c r="H25" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="I25" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="J25" s="84" t="s">
+      <c r="I25" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="J25" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="K25" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="L25" s="82"/>
+      <c r="K25" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="L25" s="67"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="60">
+      <c r="A26" s="59">
         <v>25</v>
       </c>
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="99" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -2744,25 +2818,25 @@
       <c r="F26" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="H26" s="81" t="s">
+      <c r="H26" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="I26" s="82" t="s">
+      <c r="I26" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="J26" s="82" t="s">
+      <c r="J26" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="K26" s="82" t="s">
+      <c r="K26" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="L26" s="82"/>
+      <c r="L26" s="67"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="60">
+      <c r="A27" s="59">
         <v>26</v>
       </c>
-      <c r="B27" s="91"/>
+      <c r="B27" s="100"/>
       <c r="C27" s="27" t="s">
         <v>60</v>
       </c>
@@ -2775,25 +2849,25 @@
       <c r="F27" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H27" s="81" t="s">
+      <c r="H27" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="I27" s="82" t="s">
+      <c r="I27" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="J27" s="82" t="s">
+      <c r="J27" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="K27" s="82" t="s">
+      <c r="K27" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="L27" s="82"/>
+      <c r="L27" s="67"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="60">
+      <c r="A28" s="59">
         <v>27</v>
       </c>
-      <c r="B28" s="91"/>
+      <c r="B28" s="100"/>
       <c r="C28" s="27" t="s">
         <v>61</v>
       </c>
@@ -2806,25 +2880,25 @@
       <c r="F28" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H28" s="81" t="s">
+      <c r="H28" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="I28" s="82" t="s">
+      <c r="I28" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="J28" s="82" t="s">
+      <c r="J28" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="K28" s="82" t="s">
+      <c r="K28" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="L28" s="82"/>
+      <c r="L28" s="67"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="60">
+      <c r="A29" s="59">
         <v>28</v>
       </c>
-      <c r="B29" s="92"/>
+      <c r="B29" s="101"/>
       <c r="C29" s="18" t="s">
         <v>62</v>
       </c>
@@ -2837,25 +2911,25 @@
       <c r="F29" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="H29" s="81" t="s">
+      <c r="H29" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="I29" s="82" t="s">
+      <c r="I29" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="J29" s="82" t="s">
+      <c r="J29" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="K29" s="82" t="s">
+      <c r="K29" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="L29" s="82"/>
+      <c r="L29" s="67"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="60">
+      <c r="A30" s="59">
         <v>29</v>
       </c>
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="102" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="15" t="s">
@@ -2870,25 +2944,25 @@
       <c r="F30" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="H30" s="81" t="s">
+      <c r="H30" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="I30" s="82" t="s">
+      <c r="I30" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="J30" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K30" s="82" t="s">
+      <c r="J30" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K30" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="L30" s="82"/>
+      <c r="L30" s="67"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="60">
+      <c r="A31" s="59">
         <v>30</v>
       </c>
-      <c r="B31" s="89"/>
+      <c r="B31" s="103"/>
       <c r="C31" s="26" t="s">
         <v>64</v>
       </c>
@@ -2901,25 +2975,25 @@
       <c r="F31" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H31" s="81" t="s">
+      <c r="H31" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="I31" s="82" t="s">
+      <c r="I31" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="J31" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K31" s="82" t="s">
+      <c r="J31" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K31" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="L31" s="82"/>
+      <c r="L31" s="67"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="60">
+      <c r="A32" s="59">
         <v>31</v>
       </c>
-      <c r="B32" s="89"/>
+      <c r="B32" s="103"/>
       <c r="C32" s="27" t="s">
         <v>65</v>
       </c>
@@ -2932,25 +3006,25 @@
       <c r="F32" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H32" s="81" t="s">
+      <c r="H32" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="I32" s="82" t="s">
+      <c r="I32" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="J32" s="82" t="s">
+      <c r="J32" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="K32" s="82" t="s">
+      <c r="K32" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="L32" s="82"/>
-    </row>
-    <row r="33" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="60">
+      <c r="L32" s="67"/>
+    </row>
+    <row r="33" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="59">
         <v>32</v>
       </c>
-      <c r="B33" s="89"/>
+      <c r="B33" s="103"/>
       <c r="C33" s="26" t="s">
         <v>66</v>
       </c>
@@ -2963,25 +3037,25 @@
       <c r="F33" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H33" s="81" t="s">
+      <c r="H33" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="I33" s="82" t="s">
+      <c r="I33" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="J33" s="85" t="s">
-        <v>213</v>
-      </c>
-      <c r="K33" s="82" t="s">
+      <c r="J33" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="K33" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="L33" s="85"/>
+      <c r="L33" s="70"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="60">
+      <c r="A34" s="59">
         <v>33</v>
       </c>
-      <c r="B34" s="89"/>
+      <c r="B34" s="103"/>
       <c r="C34" s="27" t="s">
         <v>67</v>
       </c>
@@ -2994,25 +3068,25 @@
       <c r="F34" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H34" s="81" t="s">
+      <c r="H34" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="I34" s="82" t="s">
+      <c r="I34" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="J34" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K34" s="82" t="s">
+      <c r="J34" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K34" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="L34" s="82"/>
+      <c r="L34" s="67"/>
     </row>
     <row r="35" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="60">
+      <c r="A35" s="59">
         <v>34</v>
       </c>
-      <c r="B35" s="89"/>
+      <c r="B35" s="103"/>
       <c r="C35" s="27" t="s">
         <v>95</v>
       </c>
@@ -3025,26 +3099,26 @@
       <c r="F35" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G35" s="58"/>
-      <c r="H35" s="81" t="s">
+      <c r="G35" s="57"/>
+      <c r="H35" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="I35" s="82" t="s">
+      <c r="I35" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="J35" s="83" t="s">
+      <c r="J35" s="68" t="s">
         <v>212</v>
       </c>
-      <c r="K35" s="82" t="s">
+      <c r="K35" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="L35" s="83"/>
+      <c r="L35" s="68"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="60">
+      <c r="A36" s="59">
         <v>35</v>
       </c>
-      <c r="B36" s="79"/>
+      <c r="B36" s="104"/>
       <c r="C36" s="18" t="s">
         <v>186</v>
       </c>
@@ -3057,25 +3131,25 @@
       <c r="F36" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="H36" s="81" t="s">
+      <c r="H36" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="I36" s="82" t="s">
+      <c r="I36" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="J36" s="82" t="s">
+      <c r="J36" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="K36" s="82" t="s">
+      <c r="K36" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="L36" s="82"/>
+      <c r="L36" s="67"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="60">
+      <c r="A37" s="59">
         <v>36</v>
       </c>
-      <c r="B37" s="102" t="s">
+      <c r="B37" s="87" t="s">
         <v>188</v>
       </c>
       <c r="C37" s="27" t="s">
@@ -3090,25 +3164,25 @@
       <c r="F37" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H37" s="81" t="s">
+      <c r="H37" s="66" t="s">
         <v>195</v>
       </c>
-      <c r="I37" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="J37" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K37" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="L37" s="82"/>
+      <c r="I37" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="J37" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K37" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="L37" s="67"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="60">
+      <c r="A38" s="59">
         <v>37</v>
       </c>
-      <c r="B38" s="103"/>
+      <c r="B38" s="88"/>
       <c r="C38" s="27" t="s">
         <v>69</v>
       </c>
@@ -3121,25 +3195,25 @@
       <c r="F38" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="H38" s="81" t="s">
+      <c r="H38" s="66" t="s">
         <v>195</v>
       </c>
-      <c r="I38" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="J38" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K38" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="L38" s="82"/>
+      <c r="I38" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="J38" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K38" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="L38" s="67"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="60">
+      <c r="A39" s="59">
         <v>38</v>
       </c>
-      <c r="B39" s="103"/>
+      <c r="B39" s="88"/>
       <c r="C39" s="27" t="s">
         <v>70</v>
       </c>
@@ -3152,25 +3226,25 @@
       <c r="F39" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H39" s="81" t="s">
+      <c r="H39" s="66" t="s">
         <v>195</v>
       </c>
-      <c r="I39" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="J39" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K39" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="L39" s="82"/>
+      <c r="I39" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="J39" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K39" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="L39" s="67"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="60">
+      <c r="A40" s="59">
         <v>39</v>
       </c>
-      <c r="B40" s="103"/>
+      <c r="B40" s="88"/>
       <c r="C40" s="26" t="s">
         <v>71</v>
       </c>
@@ -3183,25 +3257,25 @@
       <c r="F40" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H40" s="81" t="s">
+      <c r="H40" s="66" t="s">
         <v>195</v>
       </c>
-      <c r="I40" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="J40" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K40" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="L40" s="82"/>
+      <c r="I40" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="J40" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K40" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="L40" s="67"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="60">
+      <c r="A41" s="59">
         <v>40</v>
       </c>
-      <c r="B41" s="68"/>
+      <c r="B41" s="89"/>
       <c r="C41" s="18" t="s">
         <v>72</v>
       </c>
@@ -3214,25 +3288,25 @@
       <c r="F41" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="H41" s="81" t="s">
+      <c r="H41" s="66" t="s">
         <v>195</v>
       </c>
-      <c r="I41" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="J41" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K41" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="L41" s="82"/>
+      <c r="I41" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="J41" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K41" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="L41" s="67"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="60">
+      <c r="A42" s="59">
         <v>41</v>
       </c>
-      <c r="B42" s="99" t="s">
+      <c r="B42" s="90" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="15" t="s">
@@ -3247,25 +3321,25 @@
       <c r="F42" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="H42" s="81" t="s">
+      <c r="H42" s="66" t="s">
         <v>195</v>
       </c>
-      <c r="I42" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="J42" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K42" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="L42" s="82"/>
+      <c r="I42" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="J42" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K42" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="L42" s="67"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="60">
+      <c r="A43" s="59">
         <v>42</v>
       </c>
-      <c r="B43" s="100"/>
+      <c r="B43" s="91"/>
       <c r="C43" s="27" t="s">
         <v>74</v>
       </c>
@@ -3278,25 +3352,25 @@
       <c r="F43" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H43" s="81" t="s">
+      <c r="H43" s="66" t="s">
         <v>195</v>
       </c>
-      <c r="I43" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="J43" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K43" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="L43" s="82"/>
+      <c r="I43" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="J43" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K43" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="L43" s="67"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="60">
+      <c r="A44" s="59">
         <v>43</v>
       </c>
-      <c r="B44" s="100"/>
+      <c r="B44" s="91"/>
       <c r="C44" s="27" t="s">
         <v>75</v>
       </c>
@@ -3309,25 +3383,25 @@
       <c r="F44" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="H44" s="81" t="s">
+      <c r="H44" s="66" t="s">
         <v>195</v>
       </c>
-      <c r="I44" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="J44" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K44" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="L44" s="82"/>
+      <c r="I44" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="J44" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K44" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="L44" s="67"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="60">
+      <c r="A45" s="59">
         <v>44</v>
       </c>
-      <c r="B45" s="100"/>
+      <c r="B45" s="91"/>
       <c r="C45" s="27" t="s">
         <v>76</v>
       </c>
@@ -3340,25 +3414,25 @@
       <c r="F45" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H45" s="81" t="s">
+      <c r="H45" s="66" t="s">
         <v>195</v>
       </c>
-      <c r="I45" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="J45" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K45" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="L45" s="82"/>
+      <c r="I45" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="J45" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K45" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="L45" s="67"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="60">
+      <c r="A46" s="59">
         <v>45</v>
       </c>
-      <c r="B46" s="100"/>
+      <c r="B46" s="91"/>
       <c r="C46" s="27" t="s">
         <v>77</v>
       </c>
@@ -3371,25 +3445,25 @@
       <c r="F46" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H46" s="81" t="s">
+      <c r="H46" s="66" t="s">
         <v>195</v>
       </c>
-      <c r="I46" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="J46" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K46" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="L46" s="82"/>
+      <c r="I46" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="J46" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K46" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="L46" s="67"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="60">
+      <c r="A47" s="59">
         <v>46</v>
       </c>
-      <c r="B47" s="101"/>
+      <c r="B47" s="92"/>
       <c r="C47" s="18" t="s">
         <v>78</v>
       </c>
@@ -3402,25 +3476,25 @@
       <c r="F47" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="H47" s="81" t="s">
+      <c r="H47" s="66" t="s">
         <v>195</v>
       </c>
-      <c r="I47" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="J47" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K47" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="L47" s="82"/>
+      <c r="I47" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="J47" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K47" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="L47" s="67"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="60">
+      <c r="A48" s="59">
         <v>47</v>
       </c>
-      <c r="B48" s="96" t="s">
+      <c r="B48" s="93" t="s">
         <v>38</v>
       </c>
       <c r="C48" s="15" t="s">
@@ -3435,25 +3509,25 @@
       <c r="F48" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="H48" s="81" t="s">
+      <c r="H48" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="I48" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="J48" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K48" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="L48" s="82"/>
+      <c r="I48" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="J48" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K48" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="L48" s="67"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="60">
+      <c r="A49" s="59">
         <v>48</v>
       </c>
-      <c r="B49" s="97"/>
+      <c r="B49" s="94"/>
       <c r="C49" s="27" t="s">
         <v>80</v>
       </c>
@@ -3466,25 +3540,25 @@
       <c r="F49" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H49" s="81" t="s">
+      <c r="H49" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="I49" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="J49" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K49" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="L49" s="82"/>
+      <c r="I49" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="J49" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K49" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="L49" s="67"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="60">
+      <c r="A50" s="59">
         <v>49</v>
       </c>
-      <c r="B50" s="97"/>
+      <c r="B50" s="94"/>
       <c r="C50" s="27" t="s">
         <v>81</v>
       </c>
@@ -3497,25 +3571,25 @@
       <c r="F50" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H50" s="81" t="s">
+      <c r="H50" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="I50" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="J50" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K50" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="L50" s="82"/>
+      <c r="I50" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="J50" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K50" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="L50" s="67"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="60">
+      <c r="A51" s="59">
         <v>50</v>
       </c>
-      <c r="B51" s="97"/>
+      <c r="B51" s="94"/>
       <c r="C51" s="27" t="s">
         <v>82</v>
       </c>
@@ -3528,25 +3602,25 @@
       <c r="F51" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H51" s="81" t="s">
+      <c r="H51" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="I51" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="J51" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K51" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="L51" s="82"/>
+      <c r="I51" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="J51" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K51" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="L51" s="67"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="60">
+      <c r="A52" s="59">
         <v>51</v>
       </c>
-      <c r="B52" s="97"/>
+      <c r="B52" s="94"/>
       <c r="C52" s="27" t="s">
         <v>83</v>
       </c>
@@ -3559,25 +3633,25 @@
       <c r="F52" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="H52" s="81" t="s">
+      <c r="H52" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="I52" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="J52" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K52" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="L52" s="82"/>
+      <c r="I52" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="J52" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K52" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="L52" s="67"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="60">
+      <c r="A53" s="59">
         <v>52</v>
       </c>
-      <c r="B53" s="98"/>
+      <c r="B53" s="95"/>
       <c r="C53" s="18" t="s">
         <v>84</v>
       </c>
@@ -3590,22 +3664,22 @@
       <c r="F53" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="H53" s="81" t="s">
+      <c r="H53" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="I53" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="J53" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K53" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="L53" s="82"/>
+      <c r="I53" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="J53" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K53" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="L53" s="67"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="60">
+      <c r="A54" s="59">
         <v>53</v>
       </c>
       <c r="B54" s="13" t="s">
@@ -3623,25 +3697,25 @@
       <c r="F54" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H54" s="81" t="s">
+      <c r="H54" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="I54" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="J54" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K54" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="L54" s="82"/>
+      <c r="I54" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="J54" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K54" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="L54" s="67"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="60">
+      <c r="A55" s="59">
         <v>54</v>
       </c>
-      <c r="B55" s="104" t="s">
+      <c r="B55" s="84" t="s">
         <v>114</v>
       </c>
       <c r="C55" s="15" t="s">
@@ -3656,25 +3730,25 @@
       <c r="F55" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="H55" s="81" t="s">
+      <c r="H55" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="I55" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="J55" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K55" s="82" t="s">
+      <c r="I55" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="J55" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K55" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="L55" s="82"/>
+      <c r="L55" s="67"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="60">
+      <c r="A56" s="59">
         <v>55</v>
       </c>
-      <c r="B56" s="105"/>
+      <c r="B56" s="85"/>
       <c r="C56" s="27" t="s">
         <v>116</v>
       </c>
@@ -3687,55 +3761,70 @@
       <c r="F56" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H56" s="81" t="s">
+      <c r="H56" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="I56" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="J56" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K56" s="82" t="s">
+      <c r="I56" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="J56" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K56" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="L56" s="82"/>
+      <c r="L56" s="67"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="60">
+      <c r="A57" s="59">
         <v>56</v>
       </c>
-      <c r="B57" s="106"/>
-      <c r="C57" s="18" t="s">
+      <c r="B57" s="85"/>
+      <c r="C57" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E57" s="28" t="s">
+      <c r="E57" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="F57" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="H57" s="81" t="s">
+      <c r="H57" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="I57" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="J57" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K57" s="82" t="s">
+      <c r="I57" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="J57" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K57" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="L57" s="82"/>
+      <c r="L57" s="67"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B58" s="86"/>
+      <c r="C58" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>254</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="E1:E57"/>
   <mergeCells count="8">
-    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B55:B58"/>
     <mergeCell ref="B37:B41"/>
     <mergeCell ref="B42:B47"/>
     <mergeCell ref="B48:B53"/>
@@ -3745,18 +3834,23 @@
     <mergeCell ref="B13:B25"/>
   </mergeCells>
   <conditionalFormatting sqref="E26:E34 E2:E24 E37:E57">
-    <cfRule type="containsText" priority="6" operator="containsText" text="Admin System">
+    <cfRule type="containsText" priority="7" operator="containsText" text="Admin System">
       <formula>NOT(ISERROR(SEARCH("Admin System",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="containsText" priority="2" operator="containsText" text="Admin System">
+    <cfRule type="containsText" priority="3" operator="containsText" text="Admin System">
       <formula>NOT(ISERROR(SEARCH("Admin System",E35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
+    <cfRule type="containsText" priority="2" operator="containsText" text="Admin System">
+      <formula>NOT(ISERROR(SEARCH("Admin System",E36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
     <cfRule type="containsText" priority="1" operator="containsText" text="Admin System">
-      <formula>NOT(ISERROR(SEARCH("Admin System",E36)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Admin System",E58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3768,7 +3862,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3779,7 +3875,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="78" t="s">
         <v>250</v>
       </c>
       <c r="B1" s="25" t="s">
@@ -3788,12 +3884,12 @@
       <c r="C1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="64" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="109" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -3807,7 +3903,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="72"/>
+      <c r="A3" s="109"/>
       <c r="B3" s="30" t="s">
         <v>41</v>
       </c>
@@ -3819,7 +3915,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="72"/>
+      <c r="A4" s="109"/>
       <c r="B4" s="30" t="s">
         <v>42</v>
       </c>
@@ -3831,7 +3927,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="72"/>
+      <c r="A5" s="109"/>
       <c r="B5" s="30" t="s">
         <v>43</v>
       </c>
@@ -3843,7 +3939,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="72"/>
+      <c r="A6" s="109"/>
       <c r="B6" s="30" t="s">
         <v>44</v>
       </c>
@@ -3855,7 +3951,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="72"/>
+      <c r="A7" s="109"/>
       <c r="B7" s="30" t="s">
         <v>45</v>
       </c>
@@ -3867,7 +3963,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="72"/>
+      <c r="A8" s="109"/>
       <c r="B8" s="30" t="s">
         <v>46</v>
       </c>
@@ -3878,8 +3974,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="62" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="72"/>
+    <row r="9" spans="1:4" s="61" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="109"/>
       <c r="B9" s="30" t="s">
         <v>86</v>
       </c>
@@ -3890,8 +3986,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="62" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="72"/>
+    <row r="10" spans="1:4" s="61" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="109"/>
       <c r="B10" s="30" t="s">
         <v>92</v>
       </c>
@@ -3903,7 +3999,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
+      <c r="A11" s="109"/>
       <c r="B11" s="30" t="s">
         <v>219</v>
       </c>
@@ -3915,7 +4011,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="72"/>
+      <c r="A12" s="109"/>
       <c r="B12" s="30" t="s">
         <v>220</v>
       </c>
@@ -3947,15 +4043,15 @@
       <c r="B14" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="55" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="89" t="s">
         <v>180</v>
       </c>
       <c r="B15" s="30" t="s">
@@ -3964,19 +4060,19 @@
       <c r="C15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="49" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
+      <c r="A16" s="110"/>
       <c r="B16" s="17" t="s">
         <v>72</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="51" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3987,15 +4083,15 @@
       <c r="B17" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="55" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="42" t="s">
         <v>181</v>
       </c>
       <c r="B18" s="30" t="s">
@@ -4004,7 +4100,7 @@
       <c r="C18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="49" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4015,59 +4111,63 @@
       <c r="B19" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="55" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="41"/>
+      <c r="A20" s="118" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="75"/>
-      <c r="B21" s="40"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="38"/>
-      <c r="D21" s="41"/>
+      <c r="D21" s="40"/>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="75"/>
-      <c r="B22" s="40"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="38"/>
-      <c r="D22" s="41"/>
+      <c r="D22" s="40"/>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="75"/>
-      <c r="B23" s="40"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="38"/>
-      <c r="D23" s="41"/>
+      <c r="D23" s="40"/>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="75"/>
-      <c r="B24" s="40"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="38"/>
-      <c r="D24" s="41"/>
+      <c r="D24" s="40"/>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="75"/>
-      <c r="B25" s="40"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="38"/>
-      <c r="D25" s="41"/>
+      <c r="D25" s="40"/>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="75"/>
-      <c r="B26" s="40"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="38"/>
-      <c r="D26" s="41"/>
+      <c r="D26" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="A15:A16"/>
   </mergeCells>
@@ -4078,9 +4178,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:D46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4091,7 +4193,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="78" t="s">
         <v>250</v>
       </c>
       <c r="B1" s="25" t="s">
@@ -4100,12 +4202,12 @@
       <c r="C1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="64" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="109" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -4119,7 +4221,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="72"/>
+      <c r="A3" s="109"/>
       <c r="B3" s="30" t="s">
         <v>41</v>
       </c>
@@ -4131,7 +4233,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="72"/>
+      <c r="A4" s="109"/>
       <c r="B4" s="30" t="s">
         <v>43</v>
       </c>
@@ -4143,7 +4245,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="72"/>
+      <c r="A5" s="109"/>
       <c r="B5" s="30" t="s">
         <v>45</v>
       </c>
@@ -4155,7 +4257,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="113" t="s">
         <v>183</v>
       </c>
       <c r="B6" s="14" t="s">
@@ -4169,7 +4271,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="77"/>
+      <c r="A7" s="113"/>
       <c r="B7" s="30" t="s">
         <v>48</v>
       </c>
@@ -4181,7 +4283,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="77"/>
+      <c r="A8" s="113"/>
       <c r="B8" s="30" t="s">
         <v>50</v>
       </c>
@@ -4193,7 +4295,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="77"/>
+      <c r="A9" s="113"/>
       <c r="B9" s="30" t="s">
         <v>51</v>
       </c>
@@ -4205,7 +4307,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="77"/>
+      <c r="A10" s="113"/>
       <c r="B10" s="30" t="s">
         <v>52</v>
       </c>
@@ -4217,7 +4319,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="77"/>
+      <c r="A11" s="113"/>
       <c r="B11" s="30" t="s">
         <v>53</v>
       </c>
@@ -4229,19 +4331,19 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
+      <c r="A12" s="113"/>
       <c r="B12" s="31" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="49" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="77"/>
+      <c r="A13" s="113"/>
       <c r="B13" s="30" t="s">
         <v>55</v>
       </c>
@@ -4253,55 +4355,55 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="77"/>
+      <c r="A14" s="113"/>
       <c r="B14" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="49" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
+      <c r="A15" s="113"/>
       <c r="B15" s="31" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="49" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
+      <c r="A16" s="113"/>
       <c r="B16" s="30" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="49" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
+      <c r="A17" s="113"/>
       <c r="B17" s="32" t="s">
         <v>96</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="51" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="114" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -4310,43 +4412,43 @@
       <c r="C18" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="50" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
+      <c r="A19" s="114"/>
       <c r="B19" s="30" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="49" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
+      <c r="A20" s="114"/>
       <c r="B20" s="30" t="s">
         <v>61</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="49" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
+      <c r="A21" s="114"/>
       <c r="B21" s="17" t="s">
         <v>62</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="51" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4357,15 +4459,15 @@
       <c r="B22" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="55" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="89" t="s">
         <v>188</v>
       </c>
       <c r="B23" s="30" t="s">
@@ -4374,48 +4476,48 @@
       <c r="C23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="49" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="69"/>
+      <c r="A24" s="110"/>
       <c r="B24" s="30" t="s">
         <v>70</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="49" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="69"/>
+      <c r="A25" s="110"/>
       <c r="B25" s="31" t="s">
         <v>71</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="49" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="69"/>
+      <c r="A26" s="110"/>
       <c r="B26" s="17" t="s">
         <v>72</v>
       </c>
       <c r="C26" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="51" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="115" t="s">
         <v>35</v>
       </c>
       <c r="B27" s="14" t="s">
@@ -4424,72 +4526,72 @@
       <c r="C27" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="50" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="70"/>
+      <c r="A28" s="115"/>
       <c r="B28" s="30" t="s">
         <v>74</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="49" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="70"/>
+      <c r="A29" s="115"/>
       <c r="B29" s="30" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="49" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="70"/>
+      <c r="A30" s="115"/>
       <c r="B30" s="30" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="49" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="70"/>
+      <c r="A31" s="115"/>
       <c r="B31" s="30" t="s">
         <v>77</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="49" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="70"/>
+      <c r="A32" s="115"/>
       <c r="B32" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="52" t="s">
+      <c r="D32" s="51" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="71" t="s">
+      <c r="A33" s="111" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="14" t="s">
@@ -4498,67 +4600,67 @@
       <c r="C33" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="50" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="71"/>
+      <c r="A34" s="111"/>
       <c r="B34" s="30" t="s">
         <v>80</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="49" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="71"/>
+      <c r="A35" s="111"/>
       <c r="B35" s="30" t="s">
         <v>81</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="49" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="71"/>
+      <c r="A36" s="111"/>
       <c r="B36" s="30" t="s">
         <v>82</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="49" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="71"/>
+      <c r="A37" s="111"/>
       <c r="B37" s="30" t="s">
         <v>83</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="49" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="71"/>
+      <c r="A38" s="111"/>
       <c r="B38" s="17" t="s">
         <v>84</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="51" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4569,15 +4671,15 @@
       <c r="B39" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="49" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="76" t="s">
+      <c r="A40" s="112" t="s">
         <v>110</v>
       </c>
       <c r="B40" s="14" t="s">
@@ -4586,36 +4688,36 @@
       <c r="C40" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="51" t="s">
+      <c r="D40" s="50" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="76"/>
+      <c r="A41" s="112"/>
       <c r="B41" s="30" t="s">
         <v>112</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D41" s="50" t="s">
+      <c r="D41" s="49" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="76"/>
+      <c r="A42" s="112"/>
       <c r="B42" s="17" t="s">
         <v>113</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D42" s="52" t="s">
+      <c r="D42" s="51" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="67" t="s">
+      <c r="A43" s="84" t="s">
         <v>114</v>
       </c>
       <c r="B43" s="30" t="s">
@@ -4624,44 +4726,56 @@
       <c r="C43" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="50" t="s">
+      <c r="D43" s="49" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="67"/>
+      <c r="A44" s="85"/>
       <c r="B44" s="30" t="s">
         <v>116</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="50" t="s">
+      <c r="D44" s="49" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="67"/>
-      <c r="B45" s="17" t="s">
+      <c r="A45" s="85"/>
+      <c r="B45" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="52" t="s">
+      <c r="D45" s="49" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="86"/>
+      <c r="B46" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="C46" s="120" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A33:A38"/>
     <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A45"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A43:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4669,1036 +4783,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="115" t="s">
-        <v>250</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="115" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="116" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="72"/>
-      <c r="B3" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="72"/>
-      <c r="B4" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="72"/>
-      <c r="B5" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="77"/>
-      <c r="B7" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="77"/>
-      <c r="B8" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="77"/>
-      <c r="B9" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="77"/>
-      <c r="B10" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="77"/>
-      <c r="B11" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
-      <c r="B12" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
-      <c r="B13" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="69" t="s">
-        <v>188</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="69"/>
-      <c r="B17" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="69"/>
-      <c r="B18" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="70"/>
-      <c r="B20" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="70"/>
-      <c r="B21" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="70"/>
-      <c r="B22" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="70"/>
-      <c r="B23" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="70"/>
-      <c r="B24" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="71"/>
-      <c r="B26" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="71"/>
-      <c r="B27" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="71"/>
-      <c r="B28" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="71"/>
-      <c r="B29" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="71"/>
-      <c r="B30" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="76"/>
-      <c r="B33" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="76"/>
-      <c r="B34" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="67"/>
-      <c r="B36" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="67"/>
-      <c r="B37" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A25:A30"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="115" t="s">
-        <v>250</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="115" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="72"/>
-      <c r="B3" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="72"/>
-      <c r="B4" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="72"/>
-      <c r="B5" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="77"/>
-      <c r="B7" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="77"/>
-      <c r="B8" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="77"/>
-      <c r="B9" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="77"/>
-      <c r="B10" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="77"/>
-      <c r="B11" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="62" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
-      <c r="B12" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="77"/>
-      <c r="B13" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="74" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
-      <c r="B16" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="74"/>
-      <c r="B17" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="74"/>
-      <c r="B18" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="69" t="s">
-        <v>251</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="51" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="69"/>
-      <c r="B20" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="69"/>
-      <c r="B21" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="52" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="51" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="70"/>
-      <c r="B23" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="50" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="70"/>
-      <c r="B24" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="50" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="70"/>
-      <c r="B25" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="50" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="70"/>
-      <c r="B26" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="50" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="70"/>
-      <c r="B27" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="52" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="51" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="71"/>
-      <c r="B29" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="50" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="71"/>
-      <c r="B30" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="50" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="71"/>
-      <c r="B31" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="50" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="71"/>
-      <c r="B32" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="50" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="71"/>
-      <c r="B33" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="52" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="D34" s="50" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D35" s="51" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="76"/>
-      <c r="B36" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D36" s="50" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="76"/>
-      <c r="B37" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37" s="52" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="50" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="67"/>
-      <c r="B39" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="50" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="67"/>
-      <c r="B40" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="52" t="s">
-        <v>175</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A27"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5710,21 +4798,1075 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="78" t="s">
         <v>250</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="79" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="109"/>
+      <c r="B3" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="109"/>
+      <c r="B4" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="109"/>
+      <c r="B5" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="113" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="113"/>
+      <c r="B7" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="113"/>
+      <c r="B8" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="113"/>
+      <c r="B9" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="113"/>
+      <c r="B10" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="113"/>
+      <c r="B11" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="113"/>
+      <c r="B12" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="113"/>
+      <c r="B13" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="110" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="110"/>
+      <c r="B17" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="110"/>
+      <c r="B18" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="115" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="115"/>
+      <c r="B20" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="115"/>
+      <c r="B21" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="115"/>
+      <c r="B22" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="115"/>
+      <c r="B23" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="115"/>
+      <c r="B24" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="111" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="111"/>
+      <c r="B26" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="111"/>
+      <c r="B27" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="111"/>
+      <c r="B28" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="111"/>
+      <c r="B29" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="111"/>
+      <c r="B30" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="112" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="112"/>
+      <c r="B33" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="112"/>
+      <c r="B34" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="85"/>
+      <c r="B36" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="85"/>
+      <c r="B37" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="86"/>
+      <c r="B38" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="C38" s="120" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="A35:A38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="78" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="109"/>
+      <c r="B3" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="109"/>
+      <c r="B4" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="109"/>
+      <c r="B5" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="113" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="113"/>
+      <c r="B7" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="113"/>
+      <c r="B8" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="113"/>
+      <c r="B9" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="113"/>
+      <c r="B10" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="113"/>
+      <c r="B11" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="61" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="113"/>
+      <c r="B12" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="113"/>
+      <c r="B13" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="116" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="116"/>
+      <c r="B16" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="116"/>
+      <c r="B17" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="116"/>
+      <c r="B18" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="110" t="s">
+        <v>251</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="110"/>
+      <c r="B20" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="110"/>
+      <c r="B21" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="115" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="115"/>
+      <c r="B23" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="115"/>
+      <c r="B24" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="115"/>
+      <c r="B25" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="115"/>
+      <c r="B26" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="115"/>
+      <c r="B27" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="111" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="111"/>
+      <c r="B29" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="111"/>
+      <c r="B30" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="111"/>
+      <c r="B31" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="111"/>
+      <c r="B32" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="111"/>
+      <c r="B33" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="112" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="112"/>
+      <c r="B36" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="112"/>
+      <c r="B37" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="51" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="85"/>
+      <c r="B39" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="85"/>
+      <c r="B40" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="86"/>
+      <c r="B41" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="C41" s="120" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A38:A41"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="78" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="113" t="s">
         <v>183</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -5737,8 +5879,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="62" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="77"/>
+    <row r="3" spans="1:4" s="61" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="113"/>
       <c r="B3" s="27" t="s">
         <v>96</v>
       </c>
@@ -5750,19 +5892,19 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
+      <c r="A4" s="113"/>
       <c r="B4" s="26" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="49" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="62" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="77"/>
+    <row r="5" spans="1:4" s="61" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="113"/>
       <c r="B5" s="27" t="s">
         <v>96</v>
       </c>
@@ -5774,19 +5916,19 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="77"/>
+      <c r="A6" s="113"/>
       <c r="B6" s="28" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="49" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="52" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -5795,12 +5937,12 @@
       <c r="C7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="50" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="116" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="16" t="s">
@@ -5809,36 +5951,36 @@
       <c r="C8" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="50" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="74"/>
+      <c r="A9" s="116"/>
       <c r="B9" s="27" t="s">
         <v>65</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="49" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="74"/>
+      <c r="A10" s="116"/>
       <c r="B10" s="18" t="s">
         <v>95</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="51" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="89" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -5847,36 +5989,36 @@
       <c r="C11" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="49" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="69"/>
+      <c r="A12" s="110"/>
       <c r="B12" s="27" t="s">
         <v>70</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="49" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="69"/>
+      <c r="A13" s="110"/>
       <c r="B13" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="51" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="48" t="s">
         <v>189</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -5885,7 +6027,7 @@
       <c r="C14" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="49" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5893,13 +6035,13 @@
       <c r="A15" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="55" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5910,11 +6052,25 @@
       <c r="B16" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="51" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="118" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C17" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -5944,27 +6100,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="78" t="s">
         <v>250</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="79" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>190</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="75" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -5972,7 +6128,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="102" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -5986,14 +6142,14 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="109"/>
-      <c r="B4" s="113" t="s">
+      <c r="A4" s="117"/>
+      <c r="B4" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="77" t="s">
         <v>185</v>
       </c>
     </row>
@@ -6001,10 +6157,10 @@
       <c r="A5" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="74" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -6024,7 +6180,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6036,30 +6192,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="81" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="81" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="82" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="75" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="112" t="s">
+      <c r="D2" s="75" t="s">
         <v>216</v>
       </c>
     </row>
